--- a/Tables_Figures/output/table14_SR2_error_rates_response_counts.xlsx
+++ b/Tables_Figures/output/table14_SR2_error_rates_response_counts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Condition.Related</t>
   </si>
@@ -81,6 +81,36 @@
   </si>
   <si>
     <t>Singular</t>
+  </si>
+  <si>
+    <t>Inf (1.2, 1.4)</t>
+  </si>
+  <si>
+    <t>NaN (0, 0)</t>
+  </si>
+  <si>
+    <t>Inf (1.2, 1.8)</t>
+  </si>
+  <si>
+    <t>Inf (0.3, 0.3)</t>
+  </si>
+  <si>
+    <t>5.5 (1.5, 1.5)</t>
+  </si>
+  <si>
+    <t>0.3 (0, 0)</t>
+  </si>
+  <si>
+    <t>10.6 (1.7, 1.9)</t>
+  </si>
+  <si>
+    <t>0.5 (0.3, 0.3)</t>
+  </si>
+  <si>
+    <t>2.5 (1.1, 0.9)</t>
+  </si>
+  <si>
+    <t>0.6 (0.4, 0.4)</t>
   </si>
   <si>
     <t>26 (3)</t>
@@ -252,17 +282,17 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="n">
-        <v>5.496828752642706</v>
+      <c r="D2" t="s">
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H2" t="n">
         <v>174.0</v>
@@ -278,17 +308,17 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
+      <c r="D3" t="s">
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H3" t="n">
         <v>171.0</v>
@@ -304,17 +334,17 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="n">
-        <v>5.990783410138248</v>
+      <c r="D4" t="s">
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H4" t="n">
         <v>195.0</v>
@@ -330,17 +360,17 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.6172839506172839</v>
+      <c r="D5" t="s">
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
         <v>154.0</v>
@@ -356,17 +386,17 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
-        <v>5.521472392638037</v>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H6" t="n">
         <v>117.0</v>
@@ -382,17 +412,17 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.3048780487804878</v>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
         <v>108.0</v>
@@ -408,17 +438,17 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
-        <v>10.601719197707736</v>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H8" t="n">
         <v>106.0</v>
@@ -434,17 +464,17 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.5405405405405406</v>
+      <c r="D9" t="s">
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H9" t="n">
         <v>78.0</v>
@@ -460,17 +490,17 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="n">
-        <v>2.4861878453038675</v>
+      <c r="D10" t="s">
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
         <v>96.0</v>
@@ -486,17 +516,17 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.5602240896358543</v>
+      <c r="D11" t="s">
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H11" t="n">
         <v>79.0</v>

--- a/Tables_Figures/output/table14_SR2_error_rates_response_counts.xlsx
+++ b/Tables_Figures/output/table14_SR2_error_rates_response_counts.xlsx
@@ -83,16 +83,16 @@
     <t>Singular</t>
   </si>
   <si>
-    <t>Inf (1.2, 1.4)</t>
-  </si>
-  <si>
-    <t>NaN (0, 0)</t>
-  </si>
-  <si>
-    <t>Inf (1.2, 1.8)</t>
-  </si>
-  <si>
-    <t>Inf (0.3, 0.3)</t>
+    <t>5.5 (1.2, 1.4)</t>
+  </si>
+  <si>
+    <t>0 (0, 0)</t>
+  </si>
+  <si>
+    <t>6 (1.2, 1.8)</t>
+  </si>
+  <si>
+    <t>0.6 (0.3, 0.3)</t>
   </si>
   <si>
     <t>5.5 (1.5, 1.5)</t>

--- a/Tables_Figures/output/table14_SR2_error_rates_response_counts.xlsx
+++ b/Tables_Figures/output/table14_SR2_error_rates_response_counts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Condition.Related</t>
   </si>
@@ -33,36 +33,6 @@
   </si>
   <si>
     <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>Related</t>
@@ -249,26 +219,25 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -277,215 +246,191 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3" t="n">
         <v>171.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4" t="n">
         <v>195.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5" t="n">
         <v>154.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6" t="n">
         <v>117.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7" t="n">
         <v>108.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -494,41 +439,35 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10" t="n">
         <v>96.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11" t="n">
         <v>79.0</v>
       </c>
     </row>
